--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-032 - Admin SLN Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-032 - Admin SLN Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFCD773-9D72-4638-8520-3DD7DC9761E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4DF1B5-02CF-4A74-AD38-8A1468BC3C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0201" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0011" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,9 +107,6 @@
     <t>Admin SLN</t>
   </si>
   <si>
-    <t>DGS-216</t>
-  </si>
-  <si>
     <t>1. login digisales portal dengan admin divisi SLN 52326
 2. buka menu product holding
 3. isi field npp (semua sales terbuka) pilih npp 39798, dengan field tahun, bulan, CIF  (tahun 2022 bulan februari) 
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>10186699862</t>
+  </si>
+  <si>
+    <t>SCD0011-032</t>
   </si>
 </sst>
 </file>
@@ -531,14 +531,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -627,13 +627,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>22</v>
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="13" t="s">
